--- a/results/I3_N5_M2_T30_C100_DepCentral_s4_P1_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s4_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1854.901735616784</v>
+        <v>2086.259797846831</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.73074255039767</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.023455316280423</v>
+        <v>11.10908945291819</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.454448382654275</v>
+        <v>4.633196485827958</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1376.540000000012</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>456.2</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,45 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -733,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -744,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -755,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -766,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -835,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -846,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -857,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -868,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -890,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -940,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22.46902814888773</v>
+        <v>22.74451170626076</v>
       </c>
     </row>
     <row r="4">
@@ -948,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21.61595173195241</v>
+        <v>13.15868643584639</v>
       </c>
     </row>
     <row r="5">
@@ -956,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.77463816779881</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>14.77463816779881</v>
       </c>
     </row>
     <row r="7">
@@ -972,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.530971851112266</v>
+        <v>20.27548355737303</v>
       </c>
     </row>
     <row r="8">
@@ -980,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>27.94979170739339</v>
+        <v>25.56053727432651</v>
       </c>
     </row>
     <row r="9">
@@ -988,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.28505371695348</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1037,10 +1004,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1051,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1065,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1076,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1090,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1107,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1118,13 +1085,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1132,13 +1099,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1146,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1160,13 +1127,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1174,13 +1141,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1188,13 +1155,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1202,15 +1169,57 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1313,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>149.9349999999998</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8">
@@ -1324,7 +1333,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>148.3899999999998</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9">
@@ -1335,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>146.0149999999998</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10">
@@ -1346,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>148.6649999999998</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11">
@@ -1357,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>136.6049999999998</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12">
@@ -1368,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>127.1400000000007</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -1379,7 +1388,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>131.7700000000007</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14">
@@ -1390,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>141.3350000000007</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
@@ -1401,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>144.4750000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16">
@@ -1412,7 +1421,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>132.7</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -1423,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>183.1350000000015</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1434,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>190.1700000000015</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1445,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>198.3400000000015</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1456,7 +1465,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>198.3350000000015</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1467,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>188.6800000000015</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1478,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>46.63000000000007</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23">
@@ -1489,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24">
@@ -1500,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>46.7</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
@@ -1511,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26">
@@ -1522,7 +1531,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>47.43000000000007</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27">
@@ -1533,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.93999999999971</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
@@ -1544,7 +1553,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>42.87999999999971</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
@@ -1555,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>41.35</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30">
@@ -1566,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>44.15999999999971</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31">
@@ -1577,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>40</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32">
@@ -1588,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>183.1350000000015</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
@@ -1599,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>190.1700000000015</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
@@ -1610,7 +1619,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>198.3400000000015</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35">
@@ -1621,7 +1630,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>198.3350000000015</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36">
@@ -1632,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>188.6800000000015</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37">
@@ -1643,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>149.9349999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1654,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>148.3899999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1665,7 +1674,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>146.0149999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1676,7 +1685,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>148.6649999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1687,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>136.6049999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>83.13500000000147</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3">
@@ -1745,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>90.17000000000147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
@@ -1756,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>98.34000000000145</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -1767,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>98.33500000000146</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
@@ -1778,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>88.68000000000146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7">
@@ -1789,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>49.9349999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1800,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>48.38999999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1811,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.01499999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1822,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>48.66499999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1833,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>36.60499999999976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1946,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1957,7 +1966,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1968,7 +1977,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1979,7 +1988,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1990,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2001,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -2012,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -2023,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -2034,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2045,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2056,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2067,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2089,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2100,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>20.545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2111,7 +2120,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>24.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2122,7 +2131,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>29.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2133,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>24.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2144,7 +2153,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.45</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2158,7 +2167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2251,10 +2260,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2262,10 +2271,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2273,10 +2282,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2284,10 +2293,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2295,10 +2304,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2306,10 +2315,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2317,10 +2326,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2328,10 +2337,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2339,12 +2348,23 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>
